--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -534,22 +534,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H2">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I2">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J2">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>0.4807336490102223</v>
+        <v>0.5015929886546666</v>
       </c>
       <c r="R2">
-        <v>4.326602841092</v>
+        <v>4.514336897891999</v>
       </c>
       <c r="S2">
-        <v>0.006452682100592874</v>
+        <v>0.00699690319496795</v>
       </c>
       <c r="T2">
-        <v>0.007562029823214108</v>
+        <v>0.007755372637138322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H3">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I3">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J3">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>24.23805413461755</v>
+        <v>46.41817736583732</v>
       </c>
       <c r="R3">
-        <v>218.142487211558</v>
+        <v>417.7635962925359</v>
       </c>
       <c r="S3">
-        <v>0.3253370309934808</v>
+        <v>0.6475040538080985</v>
       </c>
       <c r="T3">
-        <v>0.381269105251999</v>
+        <v>0.7176939685189497</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.7602039999999999</v>
+      </c>
+      <c r="H4">
+        <v>2.280612</v>
+      </c>
+      <c r="I4">
+        <v>0.9081302434927829</v>
+      </c>
+      <c r="J4">
+        <v>0.9140443705567521</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.3969536666666666</v>
-      </c>
-      <c r="H4">
-        <v>1.190861</v>
-      </c>
-      <c r="I4">
-        <v>0.4375843187631859</v>
-      </c>
-      <c r="J4">
-        <v>0.4731252557598102</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.05250823711933333</v>
+        <v>0.1188568817946666</v>
       </c>
       <c r="R4">
-        <v>0.472574134074</v>
+        <v>1.069711936152</v>
       </c>
       <c r="S4">
-        <v>0.0007047956024946444</v>
+        <v>0.001657977911939248</v>
       </c>
       <c r="T4">
-        <v>0.0008259643481963825</v>
+        <v>0.001837703934575055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H5">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I5">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J5">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>7.569281618261999</v>
+        <v>17.953228151218</v>
       </c>
       <c r="R5">
-        <v>45.41568970957199</v>
+        <v>107.719368907308</v>
       </c>
       <c r="S5">
-        <v>0.1015992288309057</v>
+        <v>0.2504361150425285</v>
       </c>
       <c r="T5">
-        <v>0.07937747295957984</v>
+        <v>0.1850557158247632</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7602039999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.280612</v>
+      </c>
+      <c r="I6">
+        <v>0.9081302434927829</v>
+      </c>
+      <c r="J6">
+        <v>0.9140443705567521</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.3969536666666666</v>
-      </c>
-      <c r="H6">
-        <v>1.190861</v>
-      </c>
-      <c r="I6">
-        <v>0.4375843187631859</v>
-      </c>
-      <c r="J6">
-        <v>0.4731252557598102</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>0.260053080014</v>
+        <v>0.11005473308</v>
       </c>
       <c r="R6">
-        <v>2.340477720126</v>
+        <v>0.9904925977199999</v>
       </c>
       <c r="S6">
-        <v>0.003490581235711882</v>
+        <v>0.001535193535248856</v>
       </c>
       <c r="T6">
-        <v>0.004090683376820867</v>
+        <v>0.001701609641325781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H7">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I7">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J7">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>0.247580689354</v>
+        <v>0.01072131226966667</v>
       </c>
       <c r="R7">
-        <v>1.485484136124</v>
+        <v>0.06432787361799999</v>
       </c>
       <c r="S7">
-        <v>0.003323169671888373</v>
+        <v>0.0001495554877572786</v>
       </c>
       <c r="T7">
-        <v>0.002596326899384633</v>
+        <v>0.0001105116082708156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H8">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I8">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J8">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
-        <v>12.482742083071</v>
+        <v>0.9921665290073333</v>
       </c>
       <c r="R8">
-        <v>74.896452498426</v>
+        <v>5.952999174044</v>
       </c>
       <c r="S8">
-        <v>0.1675505065467903</v>
+        <v>0.01384009209413235</v>
       </c>
       <c r="T8">
-        <v>0.1309039050376737</v>
+        <v>0.01022691215731954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.016249</v>
+      </c>
+      <c r="H9">
+        <v>0.032498</v>
+      </c>
+      <c r="I9">
+        <v>0.01941085330584189</v>
+      </c>
+      <c r="J9">
+        <v>0.01302484331151171</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.2044335</v>
-      </c>
-      <c r="H9">
-        <v>0.408867</v>
-      </c>
-      <c r="I9">
-        <v>0.2253585275608331</v>
-      </c>
-      <c r="J9">
-        <v>0.1624415477093853</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>0.027042054513</v>
+        <v>0.002540509484666666</v>
       </c>
       <c r="R9">
-        <v>0.162252327078</v>
+        <v>0.015243056908</v>
       </c>
       <c r="S9">
-        <v>0.0003629739284498918</v>
+        <v>3.543849163001095E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002835843689179596</v>
+        <v>2.618670009007238E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H10">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I10">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J10">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>3.898225066670999</v>
+        <v>0.3837417380455</v>
       </c>
       <c r="R10">
-        <v>15.592900266684</v>
+        <v>1.534966952182</v>
       </c>
       <c r="S10">
-        <v>0.0523242073101805</v>
+        <v>0.005352953198517826</v>
       </c>
       <c r="T10">
-        <v>0.02725324721908311</v>
+        <v>0.00263698544639472</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.016249</v>
+      </c>
+      <c r="H11">
+        <v>0.032498</v>
+      </c>
+      <c r="I11">
+        <v>0.01941085330584189</v>
+      </c>
+      <c r="J11">
+        <v>0.01302484331151171</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.2044335</v>
-      </c>
-      <c r="H11">
-        <v>0.408867</v>
-      </c>
-      <c r="I11">
-        <v>0.2253585275608331</v>
-      </c>
-      <c r="J11">
-        <v>0.1624415477093853</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>0.133928883387</v>
+        <v>0.00235236773</v>
       </c>
       <c r="R11">
-        <v>0.8035733003219999</v>
+        <v>0.01411420638</v>
       </c>
       <c r="S11">
-        <v>0.001797670103524018</v>
+        <v>3.281403380442442E-05</v>
       </c>
       <c r="T11">
-        <v>0.001404484184325977</v>
+        <v>2.424739943655704E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H12">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I12">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J12">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>0.3702936976115556</v>
+        <v>0.04002165776533333</v>
       </c>
       <c r="R12">
-        <v>3.332643278504</v>
+        <v>0.3601949198880001</v>
       </c>
       <c r="S12">
-        <v>0.004970293881986253</v>
+        <v>0.0005582766733586986</v>
       </c>
       <c r="T12">
-        <v>0.00582478882111135</v>
+        <v>0.0006187942745345489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H13">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I13">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J13">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>18.66979502453288</v>
+        <v>3.703665024522667</v>
       </c>
       <c r="R13">
-        <v>168.028155220796</v>
+        <v>33.332985220704</v>
       </c>
       <c r="S13">
-        <v>0.2505966712015609</v>
+        <v>0.05166377168205381</v>
       </c>
       <c r="T13">
-        <v>0.2936793525052581</v>
+        <v>0.05726416245440096</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H14">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I14">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J14">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.04044540946533333</v>
+        <v>0.009483484725333334</v>
       </c>
       <c r="R14">
-        <v>0.364008685188</v>
+        <v>0.085351362528</v>
       </c>
       <c r="S14">
-        <v>0.0005428814276792105</v>
+        <v>0.0001322885807317339</v>
       </c>
       <c r="T14">
-        <v>0.000636213822807426</v>
+        <v>0.0001466287599849311</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H15">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I15">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J15">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>5.830374646043999</v>
+        <v>1.432472082152</v>
       </c>
       <c r="R15">
-        <v>34.982247876264</v>
+        <v>8.594832492912001</v>
       </c>
       <c r="S15">
-        <v>0.07825862449141487</v>
+        <v>0.01998207454054387</v>
       </c>
       <c r="T15">
-        <v>0.06114191929310751</v>
+        <v>0.01476543072526169</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H16">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I16">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J16">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>0.200310539468</v>
+        <v>0.008781169120000001</v>
       </c>
       <c r="R16">
-        <v>1.802794855212</v>
+        <v>0.07903052208000001</v>
       </c>
       <c r="S16">
-        <v>0.002688682673339933</v>
+        <v>0.0001224917246871295</v>
       </c>
       <c r="T16">
-        <v>0.003150922088519985</v>
+        <v>0.0001357699175540468</v>
       </c>
     </row>
   </sheetData>
